--- a/Report/Bill of materials.xlsx
+++ b/Report/Bill of materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\Mechatronics\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D60A8D-9083-4860-A48E-EDACD524AC04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1F0F2-3852-4EFA-86E1-7609C533A8FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{3E28F5D2-2F4A-4EB5-9B9A-9194E8C927C8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3E28F5D2-2F4A-4EB5-9B9A-9194E8C927C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Part</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Price per Unit</t>
   </si>
   <si>
-    <t>Project Bill of Materials</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>https://www.amazon.com/RPLiDAR-A1M8-Degree-Laser-Scanner/dp/B07H7X3SFF/ref=sr_1_2?dchild=1&amp;keywords=RPlidar&amp;qid=1587341265&amp;s=electronics&amp;sr=1-2&amp;th=1</t>
   </si>
   <si>
-    <t>Base Configuration Cost</t>
-  </si>
-  <si>
     <t>M3 Standoffs</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>https://www.amazon.com/Hardness-Plastic-Mecanum-Omni-Directional-Rasbperry/dp/B07Z88P92W/ref=sr_1_2?crid=19L4XTQ8KN730&amp;dchild=1&amp;keywords=mecanum+wheel&amp;qid=1587342233&amp;sprefix=mecannu%2Caps%2C203&amp;sr=8-2</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Mecannum Wheels</t>
   </si>
   <si>
@@ -178,6 +169,9 @@
   </si>
   <si>
     <t>https://www.amazon.com/OFFICIAL-RASPBERRY-FOUNDATION-TOUCHSCREEN-DISPLAY/dp/B0153R2A9I/</t>
+  </si>
+  <si>
+    <t>Actuators and Electronics</t>
   </si>
 </sst>
 </file>
@@ -188,7 +182,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +201,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,13 +235,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,7 +258,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,14 +266,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -593,544 +591,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1C052B-A754-4685-AAA7-8E6F47719DCE}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>43.33</v>
+      </c>
+      <c r="K4" s="5">
+        <f>J4*I4</f>
+        <v>43.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="4">
-        <f>SUM(E:E)</f>
-        <v>648.69000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="8">
-        <f>SUM(E6:E15)</f>
-        <v>220.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="8">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8">
+        <f>D5*C5</f>
+        <v>62</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8">
+        <f>J5*I5</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11">
-        <f>D6*C6</f>
-        <v>62</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <v>41</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" ref="E7:E15" si="0">D7*C7</f>
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:E14" si="0">D6*C6</f>
         <v>41</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
         <v>11.99</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <v>14.9</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>14.9</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
         <v>9.99</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>89.79</v>
+      </c>
+      <c r="K9" s="5">
+        <f>J9*I9</f>
+        <v>89.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
         <v>6.88</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>6.88</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="K10" s="5">
+        <f>J10*I10</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
         <v>8.89</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>8.89</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
         <v>22.99</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>22.99</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <v>33.99</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>33.99</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>29.99</v>
+      </c>
+      <c r="K13" s="5">
+        <f>J13*I13</f>
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
         <v>7.99</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>64</v>
+      </c>
+      <c r="K14" s="5">
+        <f>J14*I14</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
         <v>9.99</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E17" s="8">
+        <f>D17*C17</f>
+        <v>9.99</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="E18" s="8">
         <f>D18*C18</f>
-        <v>9.99</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="9" t="s">
+        <v>8.99</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>8.99</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>109.99</v>
+      </c>
+      <c r="E19" s="8">
         <f>D19*C19</f>
-        <v>8.99</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11">
         <v>109.99</v>
       </c>
-      <c r="E20" s="11">
-        <f>D20*C20</f>
-        <v>109.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4">
-        <v>43.33</v>
-      </c>
-      <c r="E25" s="4">
-        <f>D25*C25</f>
-        <v>43.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11">
-        <v>31</v>
-      </c>
-      <c r="E26" s="11">
-        <f>D26*C26</f>
-        <v>62</v>
-      </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>89.79</v>
-      </c>
-      <c r="E29" s="4">
-        <f>D29*C29</f>
-        <v>89.79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>9.99</v>
-      </c>
-      <c r="E30" s="4">
-        <f>D30*C30</f>
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>29.99</v>
-      </c>
-      <c r="E33" s="4">
-        <f>D33*C33</f>
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
-        <v>64</v>
-      </c>
-      <c r="E34" s="4">
-        <f>D34*C34</f>
-        <v>64</v>
-      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A24:B24"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{36F2E1A4-92B7-4B9C-A31E-51FAF9ED5584}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{CB18434A-4729-4DFC-B69B-BAF3B26F2887}"/>
-    <hyperlink ref="B18" r:id="rId3" xr:uid="{D96C7640-E6ED-4512-9D88-9E905E30DF84}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{E814E6EB-B331-4665-9461-F5B54FE39DE4}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{A2334D68-D990-4DCC-BF18-29C090884309}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{348FD811-7275-4721-8D2F-1A666D1E19EA}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{97E9E727-DEBF-450A-83AA-062CAC470DA0}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{C669999D-0624-42C0-8F1E-D83EF6BE9B67}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{BE777DEE-F31B-4805-B299-2BEECF55DDE0}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{85AC4D6A-B10E-4493-9E32-6AE63C3A3F84}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{BCF86F58-FDA2-40F9-8374-C756C408427B}"/>
-    <hyperlink ref="B20" r:id="rId12" xr:uid="{58F49133-E777-41E5-A59C-D9AB4094A34D}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{5E359DF8-4393-4E52-8A21-DD68FD153BA0}"/>
-    <hyperlink ref="B25" r:id="rId14" xr:uid="{588724E9-2F9E-4029-B9F1-4A1EEDC7AE97}"/>
-    <hyperlink ref="B29" r:id="rId15" xr:uid="{35271E80-7B53-43CE-84CD-38289E51BD33}"/>
-    <hyperlink ref="B30" r:id="rId16" xr:uid="{3D59D2BB-569F-4731-AE41-7CC4504B0577}"/>
-    <hyperlink ref="B26" r:id="rId17" xr:uid="{861922EC-E5BC-49CE-B0CE-480A1DA58F43}"/>
-    <hyperlink ref="B33" r:id="rId18" xr:uid="{283E0D81-69C1-47E1-A8B4-1C4EA2EA5B48}"/>
-    <hyperlink ref="B34" r:id="rId19" xr:uid="{9DEE8511-A2A4-4059-AAEE-9270651691C9}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{36F2E1A4-92B7-4B9C-A31E-51FAF9ED5584}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{CB18434A-4729-4DFC-B69B-BAF3B26F2887}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{D96C7640-E6ED-4512-9D88-9E905E30DF84}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{E814E6EB-B331-4665-9461-F5B54FE39DE4}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{A2334D68-D990-4DCC-BF18-29C090884309}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{348FD811-7275-4721-8D2F-1A666D1E19EA}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{97E9E727-DEBF-450A-83AA-062CAC470DA0}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{C669999D-0624-42C0-8F1E-D83EF6BE9B67}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{BE777DEE-F31B-4805-B299-2BEECF55DDE0}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{85AC4D6A-B10E-4493-9E32-6AE63C3A3F84}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{BCF86F58-FDA2-40F9-8374-C756C408427B}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{58F49133-E777-41E5-A59C-D9AB4094A34D}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{5E359DF8-4393-4E52-8A21-DD68FD153BA0}"/>
+    <hyperlink ref="H4" r:id="rId14" xr:uid="{588724E9-2F9E-4029-B9F1-4A1EEDC7AE97}"/>
+    <hyperlink ref="H5" r:id="rId15" xr:uid="{861922EC-E5BC-49CE-B0CE-480A1DA58F43}"/>
+    <hyperlink ref="H13" r:id="rId16" xr:uid="{283E0D81-69C1-47E1-A8B4-1C4EA2EA5B48}"/>
+    <hyperlink ref="H14" r:id="rId17" xr:uid="{9DEE8511-A2A4-4059-AAEE-9270651691C9}"/>
+    <hyperlink ref="H10" r:id="rId18" xr:uid="{3D59D2BB-569F-4731-AE41-7CC4504B0577}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{35271E80-7B53-43CE-84CD-38289E51BD33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
